--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18006</v>
+        <v>18005</v>
       </c>
       <c r="D132" t="n">
         <v>2818</v>
       </c>
       <c r="E132" t="n">
-        <v>36973137</v>
+        <v>36971382</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="D175" t="n">
         <v>9919</v>
       </c>
       <c r="E175" t="n">
-        <v>138050006</v>
+        <v>138250006</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55661</v>
+        <v>55662</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356231501</v>
+        <v>356235324</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15385</v>
+        <v>15386</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>118981656</v>
+        <v>119164102</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43528</v>
+        <v>43530</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117969389</v>
+        <v>117974399</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D491" t="n">
         <v>546</v>
       </c>
       <c r="E491" t="n">
-        <v>6050832</v>
+        <v>6056232</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13358</v>
+        <v>13355</v>
       </c>
       <c r="D519" t="n">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E519" t="n">
-        <v>74293794</v>
+        <v>74266740</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -31204,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>21449</v>
+        <v>21450</v>
       </c>
       <c r="D604" t="n">
         <v>2191</v>
       </c>
       <c r="E604" t="n">
-        <v>151198780</v>
+        <v>151222337</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -35386,13 +35386,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>11779</v>
+        <v>11780</v>
       </c>
       <c r="D686" t="n">
         <v>1228</v>
       </c>
       <c r="E686" t="n">
-        <v>64591902</v>
+        <v>64596100</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16861</v>
+        <v>16863</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25926683</v>
+        <v>25926995</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12004759</v>
+        <v>12042753</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36100,13 +36100,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>7487</v>
+        <v>7488</v>
       </c>
       <c r="D700" t="n">
         <v>2188</v>
       </c>
       <c r="E700" t="n">
-        <v>11581850</v>
+        <v>11583350</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17527</v>
+        <v>17533</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38558282</v>
+        <v>38563671</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19682</v>
+        <v>19686</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56366479</v>
+        <v>56340101</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36406,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D706" t="n">
         <v>455</v>
       </c>
       <c r="E706" t="n">
-        <v>4370460</v>
+        <v>4371451</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13131239</v>
+        <v>13132883</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8171016</v>
+        <v>8168120</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17014321</v>
+        <v>17023521</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42770</v>
+        <v>42771</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>128653609</v>
+        <v>128660390</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -39262,13 +39262,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>26482</v>
+        <v>26483</v>
       </c>
       <c r="D762" t="n">
         <v>5899</v>
       </c>
       <c r="E762" t="n">
-        <v>50755823</v>
+        <v>50756818</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -41353,13 +41353,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>13114</v>
+        <v>13113</v>
       </c>
       <c r="D803" t="n">
         <v>1474</v>
       </c>
       <c r="E803" t="n">
-        <v>73906913</v>
+        <v>73905353</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -42475,13 +42475,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>7495</v>
+        <v>7497</v>
       </c>
       <c r="D825" t="n">
         <v>1343</v>
       </c>
       <c r="E825" t="n">
-        <v>30298610</v>
+        <v>30309031</v>
       </c>
       <c r="F825" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17780</v>
+        <v>17783</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135038330</v>
+        <v>135240787</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43393,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>13331</v>
+        <v>13332</v>
       </c>
       <c r="D843" t="n">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E843" t="n">
-        <v>22827696</v>
+        <v>22829228</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108519</v>
+        <v>108512</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559278837</v>
+        <v>559045584</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182035</v>
+        <v>182030</v>
       </c>
       <c r="D854" t="n">
         <v>17491</v>
       </c>
       <c r="E854" t="n">
-        <v>1645526435</v>
+        <v>1645467917</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59977</v>
+        <v>59976</v>
       </c>
       <c r="D855" t="n">
         <v>9810</v>
       </c>
       <c r="E855" t="n">
-        <v>286090118</v>
+        <v>286087238</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183758</v>
+        <v>183753</v>
       </c>
       <c r="D858" t="n">
         <v>35378</v>
       </c>
       <c r="E858" t="n">
-        <v>551482098</v>
+        <v>551404615</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51259</v>
+        <v>51256</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420792463</v>
+        <v>420780742</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114873</v>
+        <v>114874</v>
       </c>
       <c r="D862" t="n">
         <v>14326</v>
       </c>
       <c r="E862" t="n">
-        <v>417275250</v>
+        <v>417288914</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48499</v>
+        <v>48497</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131905667</v>
+        <v>131893100</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165501984</v>
+        <v>165316946</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32738</v>
+        <v>32732</v>
       </c>
       <c r="D888" t="n">
         <v>3649</v>
       </c>
       <c r="E888" t="n">
-        <v>189440020</v>
+        <v>189237284</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11657</v>
+        <v>11656</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54330077</v>
+        <v>54320077</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26091</v>
+        <v>26090</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117611108</v>
+        <v>117602839</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12337</v>
+        <v>12336</v>
       </c>
       <c r="D910" t="n">
         <v>1776</v>
       </c>
       <c r="E910" t="n">
-        <v>50060970</v>
+        <v>50044279</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22810</v>
+        <v>22811</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157333222</v>
+        <v>157334862</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21923</v>
+        <v>21924</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39901069</v>
+        <v>39902432</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19668</v>
+        <v>19677</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65855103</v>
+        <v>65875236</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5339</v>
+        <v>5341</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27508442</v>
+        <v>27521411</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7389</v>
+        <v>7391</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20430292</v>
+        <v>20454086</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49666,13 +49666,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>4504</v>
+        <v>4507</v>
       </c>
       <c r="D966" t="n">
         <v>788</v>
       </c>
       <c r="E966" t="n">
-        <v>5997886</v>
+        <v>5999037</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13086</v>
+        <v>13088</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32911910</v>
+        <v>32905556</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11601630</v>
+        <v>11625430</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11109</v>
+        <v>11110</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43920883</v>
+        <v>43922283</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5359</v>
+        <v>5361</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12202102</v>
+        <v>12205320</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11060696</v>
+        <v>11062086</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -53287,13 +53287,13 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>14848</v>
+        <v>14849</v>
       </c>
       <c r="D1037" t="n">
         <v>1653</v>
       </c>
       <c r="E1037" t="n">
-        <v>84264048</v>
+        <v>84352932</v>
       </c>
       <c r="F1037" t="inlineStr">
         <is>
@@ -54919,13 +54919,13 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>28336</v>
+        <v>28337</v>
       </c>
       <c r="D1069" t="n">
         <v>3138</v>
       </c>
       <c r="E1069" t="n">
-        <v>170375854</v>
+        <v>170382347</v>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
@@ -55786,13 +55786,13 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D1086" t="n">
         <v>109</v>
       </c>
       <c r="E1086" t="n">
-        <v>1900914</v>
+        <v>1945914</v>
       </c>
       <c r="F1086" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292300511</v>
+        <v>292301108</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25248</v>
+        <v>25247</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46010808</v>
+        <v>46010357</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -68128,13 +68128,13 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="D1328" t="n">
         <v>373</v>
       </c>
       <c r="E1328" t="n">
-        <v>4744685</v>
+        <v>4747434</v>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33616</v>
+        <v>33615</v>
       </c>
       <c r="D1505" t="n">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215865989</v>
+        <v>215855989</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18900</v>
+        <v>18898</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106438359</v>
+        <v>106392638</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
@@ -82204,13 +82204,13 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>57611</v>
+        <v>57612</v>
       </c>
       <c r="D1604" t="n">
         <v>5837</v>
       </c>
       <c r="E1604" t="n">
-        <v>413514593</v>
+        <v>413521195</v>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
@@ -83530,13 +83530,13 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>31880</v>
+        <v>31881</v>
       </c>
       <c r="D1630" t="n">
         <v>6795</v>
       </c>
       <c r="E1630" t="n">
-        <v>61929513</v>
+        <v>61941023</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>
